--- a/biology/Zoologie/Anadia_steyeri/Anadia_steyeri.xlsx
+++ b/biology/Zoologie/Anadia_steyeri/Anadia_steyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anadia steyeri est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anadia steyeri est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Venezuela[1]. Elle se rencontre dans les États de Falcón, de Carabobo et d'Aragua.
-On la trouve entre 400 et 700 m d'altitude. Elle vit dans la forêt tropicale sèche et dans la forêt tropicale humide de basses altitudes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Venezuela. Elle se rencontre dans les États de Falcón, de Carabobo et d'Aragua.
+On la trouve entre 400 et 700 m d'altitude. Elle vit dans la forêt tropicale sèche et dans la forêt tropicale humide de basses altitudes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du Dr Steyer du musée d'histoire naturelle de Lübeck[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du Dr Steyer du musée d'histoire naturelle de Lübeck.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nieden, 1914 : Beschreibung einer neuen Tejiden-Art nebst Bemerkungen über einige Kriechtiere des Naturhistorischen Museums in Lübeck. Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1914, p. 364-366 (texte intégral).</t>
         </is>
